--- a/biology/Botanique/Sarracenia_psittacina/Sarracenia_psittacina.xlsx
+++ b/biology/Botanique/Sarracenia_psittacina/Sarracenia_psittacina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarracenia psittacina est une espèce de plantes à fleurs de la famille des Sarraceniaceae que l'on retrouve dans le sud-est des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le botaniste André Michaux qui fit la description de cette espèce en 1803 et qui lui donna le nom psittacina pourtant en 1834 deux autres noms lui sont donnés : Sarracenia pulchella et Sarracenia calceolata.
 Sarracenia psittacina aime les zones humides telles que les savanes marécageuses qui sont souvent inondées par les fortes précipitations. L’espèce pousse le long de la plaine côtière qui traverse la Géorgie, la péninsule de Floride, et le sud du Mississippi.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante carnivore vivace, terrestre, rhizomateuse, herbacée. Sarracenia psittacina est une plante carnivore de la famille des Sarraceniaceae. C'est une exception dans sa famille car les pièges formés par ses feuilles n'ont pas de couvercle
 Les urnes mesurent généralement de 12 à 20 cm de longueur, mais dans certaines populations, comme dans le Mississippi, les feuilles peuvent atteindre 50 cm de long. Il n'existe pas, à proprement parler, de véritables variétés connues. Mais il existe des différences d'aspect entre certaines provenances, la coiffe ou l'aile n'ont pas toujours la même dimension selon les origines.
@@ -585,7 +601,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prendre un pot de 15 centimètres, pour une plante adulte. Au cours du rempotage, faire un petit dôme ce qui permet de toujours avoir le collet de la plante sans trop d'humidité, et bien dégager. Ne pas démarrer l'arrosage trop tôt, mais dès que la plante a tendance à redémarrer, ne pas hésiter à lui redonner de l'eau. Ce Sarracenia est un peu capricieux pour la période hivernale. 
 Substrat : Plantez la dans une terre composée de 70 % de tourbe blonde, 10 % de sable, 10 % de perlite et 10 % de vermiculite. 
@@ -620,7 +638,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Par semis : 
 Semer les graines dès la récolte à l'automne, ce qui est plus prolifique. Ou maintenir les graines dans le bas du réfrigérateur jusqu'au mois de février. Dans les mini-serres saturées d'humidité les graines fraîches demandent environ trois semaines, selon la température pour une bonne germination. 
